--- a/src/main/resources/itemInfo.xlsx
+++ b/src/main/resources/itemInfo.xlsx
@@ -62,12 +62,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +121,9 @@
     <t>durable</t>
   </si>
   <si>
+    <t>repairPrice</t>
+  </si>
+  <si>
     <t>无尽之刃</t>
   </si>
   <si>
@@ -166,6 +191,9 @@
   </si>
   <si>
     <t>加mp</t>
+  </si>
+  <si>
+    <t>元宝</t>
   </si>
 </sst>
 </file>
@@ -174,10 +202,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,6 +213,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,152 +360,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,25 +380,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,19 +524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,132 +561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,9 +576,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +596,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,17 +671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1163,11 +1191,11 @@
     <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="75.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="52.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,15 +1226,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>25</v>
       </c>
@@ -1214,29 +1244,31 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>14</v>
+      </c>
       <c r="D3">
         <v>30</v>
       </c>
@@ -1244,29 +1276,31 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>17</v>
+      </c>
       <c r="D4">
         <v>34</v>
       </c>
@@ -1274,29 +1308,31 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>1007</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>20</v>
+      </c>
       <c r="D5">
         <v>35</v>
       </c>
@@ -1304,27 +1340,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>1008</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1333,27 +1372,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>1009</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1368,20 +1410,22 @@
         <v>8888</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>-1</v>
       </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>28</v>
+      </c>
       <c r="D8">
         <v>31</v>
       </c>
@@ -1395,18 +1439,21 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>106</v>
@@ -1421,21 +1468,24 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>-1</v>
       </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>105</v>
@@ -1450,12 +1500,41 @@
         <v>9</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
         <v>-1</v>
       </c>
     </row>
